--- a/results/mp/logistic/corona/confidence/42/stop-words-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,85 +49,79 @@
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
   </si>
   <si>
     <t>share</t>
@@ -491,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,10 +493,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -560,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7534246575342466</v>
+        <v>0.7808219178082192</v>
       </c>
       <c r="C3">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D3">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,19 +572,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -602,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -610,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3968253968253968</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C4">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D4">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,19 +622,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -652,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -660,13 +654,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3507751937984496</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="C5">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D5">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,69 +672,45 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="L5">
+        <v>109</v>
+      </c>
+      <c r="M5">
+        <v>109</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K5">
-        <v>0.8983050847457628</v>
-      </c>
-      <c r="L5">
-        <v>53</v>
-      </c>
-      <c r="M5">
-        <v>53</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.2013422818791946</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <v>30</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>119</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -752,21 +722,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8433420365535248</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L7">
-        <v>323</v>
+        <v>88</v>
       </c>
       <c r="M7">
-        <v>323</v>
+        <v>88</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -778,21 +748,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>0.839622641509434</v>
+        <v>0.8125</v>
       </c>
       <c r="L8">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="M8">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -804,21 +774,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.8055555555555556</v>
+        <v>0.8093994778067886</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>310</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>310</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -830,21 +800,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7878787878787878</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -861,16 +831,16 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>0.7875</v>
+        <v>0.79375</v>
       </c>
       <c r="L11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -882,21 +852,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>0.78125</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -908,21 +878,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>0.7804878048780488</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L13">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M13">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -934,21 +904,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>0.7758620689655172</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -960,21 +930,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15">
+        <v>0.7575757575757576</v>
+      </c>
+      <c r="L15">
         <v>25</v>
       </c>
-      <c r="K15">
-        <v>0.7605633802816901</v>
-      </c>
-      <c r="L15">
-        <v>108</v>
-      </c>
       <c r="M15">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -986,12 +956,12 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16">
         <v>0.75</v>
@@ -1017,16 +987,16 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1038,15 +1008,15 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K18">
-        <v>0.723404255319149</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L18">
         <v>34</v>
@@ -1064,21 +1034,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19">
+        <v>0.6744186046511628</v>
+      </c>
+      <c r="L19">
         <v>29</v>
       </c>
-      <c r="K19">
-        <v>0.6976744186046512</v>
-      </c>
-      <c r="L19">
-        <v>30</v>
-      </c>
       <c r="M19">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1090,21 +1060,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>0.6825396825396826</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L20">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M20">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1116,21 +1086,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.65</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1142,21 +1112,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K22">
-        <v>0.6441176470588236</v>
+        <v>0.6</v>
       </c>
       <c r="L22">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1168,21 +1138,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>121</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.64</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1194,21 +1164,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>0.6063829787234043</v>
+        <v>0.5457627118644067</v>
       </c>
       <c r="L24">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="M24">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1220,21 +1190,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>37</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="L25">
         <v>35</v>
       </c>
-      <c r="K25">
-        <v>0.5846153846153846</v>
-      </c>
-      <c r="L25">
-        <v>38</v>
-      </c>
       <c r="M25">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1246,21 +1216,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5690376569037657</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L26">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="M26">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1272,21 +1242,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>103</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K27">
-        <v>0.5491525423728814</v>
+        <v>0.5</v>
       </c>
       <c r="L27">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1298,21 +1268,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>133</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K28">
-        <v>0.4857142857142857</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="L28">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1324,33 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29">
-        <v>0.4382022471910113</v>
-      </c>
-      <c r="L29">
-        <v>39</v>
-      </c>
-      <c r="M29">
-        <v>39</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
